--- a/Demo Prime Janitorial/script_prime.xlsx
+++ b/Demo Prime Janitorial/script_prime.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gomado\Documents\F2M\Aquarius\Repositorio F2M\aquarius\Demo Prime Janitorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gomado\Documents\F2M\Aquarius\New Repository\BitBucket\aquarius\Demo Prime Janitorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{920C9CC3-7B7B-4C99-A311-B00698D166E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32C6F48-81AB-4F3E-BCE3-3CF089EA53A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{37ADFC47-F5EC-4559-82E1-8552A393F221}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{37ADFC47-F5EC-4559-82E1-8552A393F221}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6044" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6563" uniqueCount="136">
   <si>
     <t>paper</t>
   </si>
@@ -180,12 +184,273 @@
   <si>
     <t>;} }else {document.getElementsByName('</t>
   </si>
+  <si>
+    <t>itemSeleccionado = '</t>
+  </si>
+  <si>
+    <t>adminit@pj</t>
+  </si>
+  <si>
+    <t>Rafa</t>
+  </si>
+  <si>
+    <t>ceatoncoamo@pj</t>
+  </si>
+  <si>
+    <t>Jenny De Jesus</t>
+  </si>
+  <si>
+    <t>centrodelcancer@pj</t>
+  </si>
+  <si>
+    <t>Annette Gaston</t>
+  </si>
+  <si>
+    <t>cocacola@pj</t>
+  </si>
+  <si>
+    <t>Noel Gonzalez</t>
+  </si>
+  <si>
+    <t>coordinadorecono@pj</t>
+  </si>
+  <si>
+    <t>Juan Arias</t>
+  </si>
+  <si>
+    <t>eatonarecibo@pj</t>
+  </si>
+  <si>
+    <t>Loyda Gonzalez</t>
+  </si>
+  <si>
+    <t>eatonlaspiedras@pj</t>
+  </si>
+  <si>
+    <t>Hector Rivera</t>
+  </si>
+  <si>
+    <t>gerenteregional1@pj</t>
+  </si>
+  <si>
+    <t>Luis Colón</t>
+  </si>
+  <si>
+    <t>gerenteregional2@pj</t>
+  </si>
+  <si>
+    <t>Angel Mendez</t>
+  </si>
+  <si>
+    <t>gerenteregional3@pj</t>
+  </si>
+  <si>
+    <t>Adriana Velazco</t>
+  </si>
+  <si>
+    <t>glhponceplaza@pj</t>
+  </si>
+  <si>
+    <t>Saul Zayas</t>
+  </si>
+  <si>
+    <t>glsarmyguayama@pj</t>
+  </si>
+  <si>
+    <t>Emanuel Bermudez</t>
+  </si>
+  <si>
+    <t>grancaribemall@pj</t>
+  </si>
+  <si>
+    <t>Keishla Ayala</t>
+  </si>
+  <si>
+    <t>hhinnponce@pj</t>
+  </si>
+  <si>
+    <t>Alejandro Gomez</t>
+  </si>
+  <si>
+    <t>hmenonitaguayama@pj</t>
+  </si>
+  <si>
+    <t>Angel Aguirre</t>
+  </si>
+  <si>
+    <t>hospitaldamas@pj</t>
+  </si>
+  <si>
+    <t>Omar Torres</t>
+  </si>
+  <si>
+    <t>hospitalsanlucas@pj</t>
+  </si>
+  <si>
+    <t>Ricardo Ortiz</t>
+  </si>
+  <si>
+    <t>hospitalsusoni@pj</t>
+  </si>
+  <si>
+    <t>Deborah Carrero</t>
+  </si>
+  <si>
+    <t>hotelponcehilton@pj</t>
+  </si>
+  <si>
+    <t>Joe Otero</t>
+  </si>
+  <si>
+    <t>hpaviaarecibo@pj</t>
+  </si>
+  <si>
+    <t>Sarah Segarra</t>
+  </si>
+  <si>
+    <t>lascatalinasmall@pj</t>
+  </si>
+  <si>
+    <t>Roberto Colon</t>
+  </si>
+  <si>
+    <t>medtronicponce@pj</t>
+  </si>
+  <si>
+    <t>Jose Feliciano</t>
+  </si>
+  <si>
+    <t>montehiedramall@pj</t>
+  </si>
+  <si>
+    <t>Ana Leon</t>
+  </si>
+  <si>
+    <t>pcmall@pj</t>
+  </si>
+  <si>
+    <t>Luis Diaz</t>
+  </si>
+  <si>
+    <t>rutacentro@pj</t>
+  </si>
+  <si>
+    <t>Charles Alonso</t>
+  </si>
+  <si>
+    <t>rutaeste@pj</t>
+  </si>
+  <si>
+    <t>Dennis Diaz</t>
+  </si>
+  <si>
+    <t>rutametro@pj</t>
+  </si>
+  <si>
+    <t>Victor Ortiz</t>
+  </si>
+  <si>
+    <t>rutanorte@pj</t>
+  </si>
+  <si>
+    <t>Miguel Santiago</t>
+  </si>
+  <si>
+    <t>rutaoeste@pj</t>
+  </si>
+  <si>
+    <t>Noel Ruiz</t>
+  </si>
+  <si>
+    <t>rutasur1@pj</t>
+  </si>
+  <si>
+    <t>Joan Manuel</t>
+  </si>
+  <si>
+    <t>rutasur2@pj</t>
+  </si>
+  <si>
+    <t>Luciano Garcia</t>
+  </si>
+  <si>
+    <t>ssbiotechyauco@pj</t>
+  </si>
+  <si>
+    <t>Julio Laboy</t>
+  </si>
+  <si>
+    <t>strykerarroyo@pj</t>
+  </si>
+  <si>
+    <t>Melvin Lopez</t>
+  </si>
+  <si>
+    <t>test@pj</t>
+  </si>
+  <si>
+    <t>test Prime</t>
+  </si>
+  <si>
+    <t>test1@pj</t>
+  </si>
+  <si>
+    <t>test 1</t>
+  </si>
+  <si>
+    <t>test2@pj</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>torresclaropr@pj</t>
+  </si>
+  <si>
+    <t>Thomas Colon</t>
+  </si>
+  <si>
+    <t>wyndhamgr@pj</t>
+  </si>
+  <si>
+    <t>Waleska Diaz Caraballo</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>{"dn": null,"uid": "</t>
+  </si>
+  <si>
+    <t>","lastName": "","photo": "idFoto","sessionTime": 30,"maxConcurrent": 5,"securityProfile": ["default"]}</t>
+  </si>
+  <si>
+    <t>","givenName": "</t>
+  </si>
+  <si>
+    <t>'; if (document.getElementsByName(itemSeleccionado)[0].value.length) { var valueElemento = document.getElementsByName(itemSeleccionado)[0].value;if (!isNaN(valueElemento)) {var parcial_puntos = parseInt(valueElemento);if (parcial_puntos &gt; 5 &amp;&amp; parcial_puntos &lt;= 10){suma_puntos</t>
+  </si>
+  <si>
+    <t>;} } else { alert('Valores aceptados entre 6 y 10'); document.getElementsByName(itemSeleccionado)[0].value = ''; }}}</t>
+  </si>
+  <si>
+    <t>';if (document.getElementsByName(itemSeleccionado)[0].value.length) { var valueElemento = document.getElementsByName(itemSeleccionado)[0].value;if (isNaN(valueElemento)) {document.getElementsByName(itemSeleccionado)[0].value = 'NA'; }} else {document.getElementsByName(itemSeleccionado)[0].value = 'NA';}</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>'; valueElemento = document.getElementsByName(itemSeleccionado)[0].value;if (!valueElemento || 0 === valueElemento.length) {document.getElementsByName(itemSeleccionado)[0].value = 'NA'; }</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,16 +466,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -218,14 +495,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB3BDE1-8212-4C00-B6C2-715940FCD9CF}">
   <dimension ref="A2:AI383"/>
   <sheetViews>
-    <sheetView topLeftCell="A379" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A388" sqref="A388:O406"/>
     </sheetView>
   </sheetViews>
@@ -11619,7 +11909,7 @@
         <v>11</v>
       </c>
       <c r="V110" t="str">
-        <f t="shared" ref="V110:V129" si="61">E110</f>
+        <f t="shared" ref="V110:V122" si="61">E110</f>
         <v>T1</v>
       </c>
       <c r="W110" t="s">
@@ -11633,7 +11923,7 @@
         <v>12</v>
       </c>
       <c r="Z110" t="str">
-        <f t="shared" ref="Z110:Z129" si="63">E110</f>
+        <f t="shared" ref="Z110:Z122" si="63">E110</f>
         <v>T1</v>
       </c>
       <c r="AA110" t="s">
@@ -13162,7 +13452,7 @@
         <v>11</v>
       </c>
       <c r="V124" t="str">
-        <f t="shared" ref="V124:V143" si="75">E124</f>
+        <f t="shared" ref="V124:V129" si="75">E124</f>
         <v>T1</v>
       </c>
       <c r="W124" t="s">
@@ -13176,7 +13466,7 @@
         <v>12</v>
       </c>
       <c r="Z124" t="str">
-        <f t="shared" ref="Z124:Z143" si="77">E124</f>
+        <f t="shared" ref="Z124:Z129" si="77">E124</f>
         <v>T1</v>
       </c>
       <c r="AA124" t="s">
@@ -20056,98 +20346,98 @@
         <v>6</v>
       </c>
       <c r="H193" s="1" t="str">
-        <f t="shared" ref="H193:H210" si="224">A193</f>
+        <f t="shared" ref="H193:H198" si="224">A193</f>
         <v>chems</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J193">
-        <f t="shared" ref="J193:J210" si="225">B193</f>
+        <f t="shared" ref="J193:J198" si="225">B193</f>
         <v>20020</v>
       </c>
       <c r="K193" t="s">
         <v>7</v>
       </c>
       <c r="L193" t="str">
-        <f t="shared" ref="L193:L210" si="226">C193</f>
+        <f t="shared" ref="L193:L198" si="226">C193</f>
         <v>cs</v>
       </c>
       <c r="M193" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N193" s="1" t="str">
-        <f t="shared" ref="N193:N210" si="227">A193</f>
+        <f t="shared" ref="N193:N198" si="227">A193</f>
         <v>chems</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P193">
-        <f t="shared" ref="P193:P210" si="228">B193</f>
+        <f t="shared" ref="P193:P198" si="228">B193</f>
         <v>20020</v>
       </c>
       <c r="Q193" t="s">
         <v>7</v>
       </c>
       <c r="R193" t="str">
-        <f t="shared" ref="R193:R210" si="229">C193</f>
+        <f t="shared" ref="R193:R198" si="229">C193</f>
         <v>cs</v>
       </c>
       <c r="S193" s="1" t="s">
         <v>4</v>
       </c>
       <c r="T193">
-        <f t="shared" ref="T193:T210" si="230">D193</f>
+        <f t="shared" ref="T193:T198" si="230">D193</f>
         <v>1</v>
       </c>
       <c r="U193" t="s">
         <v>11</v>
       </c>
       <c r="V193" t="str">
-        <f t="shared" ref="V193:V210" si="231">E193</f>
+        <f t="shared" ref="V193:V198" si="231">E193</f>
         <v>T2</v>
       </c>
       <c r="W193" t="s">
         <v>7</v>
       </c>
       <c r="X193" t="str">
-        <f t="shared" ref="X193:X210" si="232">C193</f>
+        <f t="shared" ref="X193:X198" si="232">C193</f>
         <v>cs</v>
       </c>
       <c r="Y193" t="s">
         <v>12</v>
       </c>
       <c r="Z193" t="str">
-        <f t="shared" ref="Z193:Z210" si="233">E193</f>
+        <f t="shared" ref="Z193:Z198" si="233">E193</f>
         <v>T2</v>
       </c>
       <c r="AA193" t="s">
         <v>7</v>
       </c>
       <c r="AB193" t="str">
-        <f t="shared" ref="AB193:AB210" si="234">C193</f>
+        <f t="shared" ref="AB193:AB198" si="234">C193</f>
         <v>cs</v>
       </c>
       <c r="AC193" t="s">
         <v>9</v>
       </c>
       <c r="AD193" t="str">
-        <f t="shared" ref="AD193:AD210" si="235">A193</f>
+        <f t="shared" ref="AD193:AD198" si="235">A193</f>
         <v>chems</v>
       </c>
       <c r="AE193" t="s">
         <v>7</v>
       </c>
       <c r="AF193">
-        <f t="shared" ref="AF193:AF210" si="236">B193</f>
+        <f t="shared" ref="AF193:AF198" si="236">B193</f>
         <v>20020</v>
       </c>
       <c r="AG193" t="s">
         <v>7</v>
       </c>
       <c r="AH193" t="str">
-        <f t="shared" ref="AH193:AH210" si="237">C193</f>
+        <f t="shared" ref="AH193:AH198" si="237">C193</f>
         <v>cs</v>
       </c>
       <c r="AI193" t="s">
@@ -35735,98 +36025,98 @@
         <v>6</v>
       </c>
       <c r="H352" s="1" t="str">
-        <f t="shared" ref="H351:H383" si="294">A352</f>
+        <f t="shared" ref="H352:H383" si="294">A352</f>
         <v>misce</v>
       </c>
       <c r="I352" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J352">
-        <f t="shared" ref="J351:J383" si="295">B352</f>
+        <f t="shared" ref="J352:J383" si="295">B352</f>
         <v>70005</v>
       </c>
       <c r="K352" t="s">
         <v>7</v>
       </c>
       <c r="L352" t="str">
-        <f t="shared" ref="L351:L383" si="296">C352</f>
+        <f t="shared" ref="L352:L383" si="296">C352</f>
         <v>cs</v>
       </c>
       <c r="M352" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N352" s="1" t="str">
-        <f t="shared" ref="N351:N383" si="297">A352</f>
+        <f t="shared" ref="N352:N383" si="297">A352</f>
         <v>misce</v>
       </c>
       <c r="O352" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P352">
-        <f t="shared" ref="P351:P383" si="298">B352</f>
+        <f t="shared" ref="P352:P383" si="298">B352</f>
         <v>70005</v>
       </c>
       <c r="Q352" t="s">
         <v>7</v>
       </c>
       <c r="R352" t="str">
-        <f t="shared" ref="R351:R383" si="299">C352</f>
+        <f t="shared" ref="R352:R383" si="299">C352</f>
         <v>cs</v>
       </c>
       <c r="S352" s="1" t="s">
         <v>4</v>
       </c>
       <c r="T352">
-        <f t="shared" ref="T351:T383" si="300">D352</f>
+        <f t="shared" ref="T352:T383" si="300">D352</f>
         <v>1</v>
       </c>
       <c r="U352" t="s">
         <v>11</v>
       </c>
       <c r="V352" t="str">
-        <f t="shared" ref="V351:V383" si="301">E352</f>
+        <f t="shared" ref="V352:V383" si="301">E352</f>
         <v>T4</v>
       </c>
       <c r="W352" t="s">
         <v>7</v>
       </c>
       <c r="X352" t="str">
-        <f t="shared" ref="X351:X383" si="302">C352</f>
+        <f t="shared" ref="X352:X383" si="302">C352</f>
         <v>cs</v>
       </c>
       <c r="Y352" t="s">
         <v>12</v>
       </c>
       <c r="Z352" t="str">
-        <f t="shared" ref="Z351:Z383" si="303">E352</f>
+        <f t="shared" ref="Z352:Z383" si="303">E352</f>
         <v>T4</v>
       </c>
       <c r="AA352" t="s">
         <v>7</v>
       </c>
       <c r="AB352" t="str">
-        <f t="shared" ref="AB351:AB383" si="304">C352</f>
+        <f t="shared" ref="AB352:AB383" si="304">C352</f>
         <v>cs</v>
       </c>
       <c r="AC352" t="s">
         <v>9</v>
       </c>
       <c r="AD352" t="str">
-        <f t="shared" ref="AD351:AD383" si="305">A352</f>
+        <f t="shared" ref="AD352:AD383" si="305">A352</f>
         <v>misce</v>
       </c>
       <c r="AE352" t="s">
         <v>7</v>
       </c>
       <c r="AF352">
-        <f t="shared" ref="AF351:AF383" si="306">B352</f>
+        <f t="shared" ref="AF352:AF383" si="306">B352</f>
         <v>70005</v>
       </c>
       <c r="AG352" t="s">
         <v>7</v>
       </c>
       <c r="AH352" t="str">
-        <f t="shared" ref="AH351:AH383" si="307">C352</f>
+        <f t="shared" ref="AH352:AH383" si="307">C352</f>
         <v>cs</v>
       </c>
       <c r="AI352" t="s">
@@ -39065,8 +39355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F187FEC-244F-4A5B-903D-D34E4AE3DFA0}">
   <dimension ref="A3:AP381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46558,4 +46848,3400 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FD8F5A-8103-49BA-AB99-3B546D917D12}">
+  <dimension ref="A3:W64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E21" si="0">A3</f>
+        <v>apariencia_</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="1">B3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="1">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B21" si="2">B3</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>alfombra_</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="1">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>paredes_</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="1">
+        <f>B5</f>
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="1">
+        <f>B5</f>
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5">
+        <f>B5</f>
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5">
+        <f>B5</f>
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5">
+        <f>B5</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5">
+        <f>B5</f>
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5">
+        <f>B5</f>
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5">
+        <f>B5</f>
+        <v>1</v>
+      </c>
+      <c r="W5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>rejillas_</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="1">
+        <f>B6</f>
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="1">
+        <f>B6</f>
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6">
+        <f>B6</f>
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6">
+        <f>B6</f>
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6">
+        <f>B6</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6">
+        <f>B6</f>
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6">
+        <f>B6</f>
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
+        <v>47</v>
+      </c>
+      <c r="V6">
+        <f>B6</f>
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>polvo_</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="1">
+        <f>B7</f>
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="1">
+        <f>B7</f>
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7">
+        <f>B7</f>
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7">
+        <f>B7</f>
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7">
+        <f>B7</f>
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7">
+        <f>B7</f>
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7">
+        <f>B7</f>
+        <v>1</v>
+      </c>
+      <c r="U7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7">
+        <f>B7</f>
+        <v>1</v>
+      </c>
+      <c r="W7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>aceras_</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="1">
+        <f>B8</f>
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="1">
+        <f>B8</f>
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8">
+        <f>B8</f>
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8">
+        <f>B8</f>
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8">
+        <f>B8</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8">
+        <f>B8</f>
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8">
+        <f>B8</f>
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V8">
+        <f>B8</f>
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>escaleras_</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="1">
+        <f>B9</f>
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="1">
+        <f>B9</f>
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9">
+        <f>B9</f>
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9">
+        <f>B9</f>
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9">
+        <f>B9</f>
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R9">
+        <f>B9</f>
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9">
+        <f>B9</f>
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
+        <v>47</v>
+      </c>
+      <c r="V9">
+        <f>B9</f>
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>ventanas_</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="1">
+        <f>B10</f>
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="1">
+        <f>B10</f>
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10">
+        <f>B10</f>
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10">
+        <f>B10</f>
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10">
+        <f>B10</f>
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10">
+        <f>B10</f>
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10">
+        <f>B10</f>
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>47</v>
+      </c>
+      <c r="V10">
+        <f>B10</f>
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>cristales_</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="1">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="1">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+      <c r="S11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+      <c r="U11" t="s">
+        <v>47</v>
+      </c>
+      <c r="V11">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>zafacones_</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="1">
+        <f>B12</f>
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="1">
+        <f>B12</f>
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12">
+        <f>B12</f>
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12">
+        <f>B12</f>
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12">
+        <f>B12</f>
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12">
+        <f>B12</f>
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12">
+        <f>B12</f>
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>47</v>
+      </c>
+      <c r="V12">
+        <f>B12</f>
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>tuberias_</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="1">
+        <f>B13</f>
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="1">
+        <f>B13</f>
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13">
+        <f>B13</f>
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13">
+        <f>B13</f>
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13">
+        <f>B13</f>
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>46</v>
+      </c>
+      <c r="R13">
+        <f>B13</f>
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13">
+        <f>B13</f>
+        <v>1</v>
+      </c>
+      <c r="U13" t="s">
+        <v>47</v>
+      </c>
+      <c r="V13">
+        <f>B13</f>
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>stainless_</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="1">
+        <f>B14</f>
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="1">
+        <f>B14</f>
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14">
+        <f>B14</f>
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14">
+        <f>B14</f>
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14">
+        <f>B14</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14">
+        <f>B14</f>
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T14">
+        <f>B14</f>
+        <v>1</v>
+      </c>
+      <c r="U14" t="s">
+        <v>47</v>
+      </c>
+      <c r="V14">
+        <f>B14</f>
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>plafones_</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H15" s="1">
+        <f>B15</f>
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="1">
+        <f>B15</f>
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15">
+        <f>B15</f>
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15">
+        <f>B15</f>
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15">
+        <f>B15</f>
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15">
+        <f>B15</f>
+        <v>1</v>
+      </c>
+      <c r="S15" t="s">
+        <v>42</v>
+      </c>
+      <c r="T15">
+        <f>B15</f>
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
+        <v>47</v>
+      </c>
+      <c r="V15">
+        <f>B15</f>
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>escritorios_</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="1">
+        <f>B16</f>
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="1">
+        <f>B16</f>
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16">
+        <f>B16</f>
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16">
+        <f>B16</f>
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16">
+        <f>B16</f>
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16">
+        <f>B16</f>
+        <v>1</v>
+      </c>
+      <c r="S16" t="s">
+        <v>42</v>
+      </c>
+      <c r="T16">
+        <f>B16</f>
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>47</v>
+      </c>
+      <c r="V16">
+        <f>B16</f>
+        <v>1</v>
+      </c>
+      <c r="W16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>sillas_</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" s="1">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="1">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>46</v>
+      </c>
+      <c r="R17">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>42</v>
+      </c>
+      <c r="T17">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
+        <v>47</v>
+      </c>
+      <c r="V17">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+      <c r="W17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>lavamanos_</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="1">
+        <f>B18</f>
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="1">
+        <f>B18</f>
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18">
+        <f>B18</f>
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18">
+        <f>B18</f>
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18">
+        <f>B18</f>
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>46</v>
+      </c>
+      <c r="R18">
+        <f>B18</f>
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>42</v>
+      </c>
+      <c r="T18">
+        <f>B18</f>
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18">
+        <f>B18</f>
+        <v>1</v>
+      </c>
+      <c r="W18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>fuentes_</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="1">
+        <f>B19</f>
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="1">
+        <f>B19</f>
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19">
+        <f>B19</f>
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19">
+        <f>B19</f>
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19">
+        <f>B19</f>
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R19">
+        <f>B19</f>
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19">
+        <f>B19</f>
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19">
+        <f>B19</f>
+        <v>1</v>
+      </c>
+      <c r="W19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>inodoros_</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="1">
+        <f>B20</f>
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="1">
+        <f>B20</f>
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20">
+        <f>B20</f>
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20">
+        <f>B20</f>
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20">
+        <f>B20</f>
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>46</v>
+      </c>
+      <c r="R20">
+        <f>B20</f>
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>42</v>
+      </c>
+      <c r="T20">
+        <f>B20</f>
+        <v>1</v>
+      </c>
+      <c r="U20" t="s">
+        <v>47</v>
+      </c>
+      <c r="V20">
+        <f>B20</f>
+        <v>1</v>
+      </c>
+      <c r="W20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>telas_</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="1">
+        <f>B21</f>
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="1">
+        <f>B21</f>
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21">
+        <f>B21</f>
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21">
+        <f>B21</f>
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21">
+        <f>B21</f>
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>46</v>
+      </c>
+      <c r="R21">
+        <f>B21</f>
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
+        <v>42</v>
+      </c>
+      <c r="T21">
+        <f>B21</f>
+        <v>1</v>
+      </c>
+      <c r="U21" t="s">
+        <v>47</v>
+      </c>
+      <c r="V21">
+        <f>B21</f>
+        <v>1</v>
+      </c>
+      <c r="W21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" ref="E25" si="3">A25</f>
+        <v>apariencia_</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25" si="4">B25</f>
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:B43" si="5">B25</f>
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" ref="E26:E43" si="6">A26</f>
+        <v>alfombra_</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:F43" si="7">B26</f>
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="6"/>
+        <v>paredes_</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="6"/>
+        <v>rejillas_</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="6"/>
+        <v>polvo_</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="6"/>
+        <v>aceras_</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="6"/>
+        <v>escaleras_</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="6"/>
+        <v>ventanas_</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="6"/>
+        <v>cristales_</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="6"/>
+        <v>zafacones_</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="6"/>
+        <v>tuberias_</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="6"/>
+        <v>stainless_</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="6"/>
+        <v>plafones_</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="6"/>
+        <v>escritorios_</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="6"/>
+        <v>sillas_</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="6"/>
+        <v>lavamanos_</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="6"/>
+        <v>fuentes_</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="6"/>
+        <v>inodoros_</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="6"/>
+        <v>telas_</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" ref="E46" si="8">A46</f>
+        <v>apariencia_</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" ref="F46" si="9">B46</f>
+        <v>area</v>
+      </c>
+      <c r="G46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" ref="B47:B64" si="10">B46</f>
+        <v>area</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" ref="E47:E64" si="11">A47</f>
+        <v>alfombra_</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" ref="F47:F64" si="12">B47</f>
+        <v>area</v>
+      </c>
+      <c r="G47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="10"/>
+        <v>area</v>
+      </c>
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="11"/>
+        <v>paredes_</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="12"/>
+        <v>area</v>
+      </c>
+      <c r="G48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="10"/>
+        <v>area</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="11"/>
+        <v>rejillas_</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="12"/>
+        <v>area</v>
+      </c>
+      <c r="G49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="10"/>
+        <v>area</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="11"/>
+        <v>polvo_</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="12"/>
+        <v>area</v>
+      </c>
+      <c r="G50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="10"/>
+        <v>area</v>
+      </c>
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="11"/>
+        <v>aceras_</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="12"/>
+        <v>area</v>
+      </c>
+      <c r="G51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="10"/>
+        <v>area</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="11"/>
+        <v>escaleras_</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="12"/>
+        <v>area</v>
+      </c>
+      <c r="G52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="10"/>
+        <v>area</v>
+      </c>
+      <c r="D53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="11"/>
+        <v>ventanas_</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="12"/>
+        <v>area</v>
+      </c>
+      <c r="G53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="10"/>
+        <v>area</v>
+      </c>
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="11"/>
+        <v>cristales_</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="12"/>
+        <v>area</v>
+      </c>
+      <c r="G54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="10"/>
+        <v>area</v>
+      </c>
+      <c r="D55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="11"/>
+        <v>zafacones_</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="12"/>
+        <v>area</v>
+      </c>
+      <c r="G55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="10"/>
+        <v>area</v>
+      </c>
+      <c r="D56" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="11"/>
+        <v>tuberias_</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="12"/>
+        <v>area</v>
+      </c>
+      <c r="G56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="10"/>
+        <v>area</v>
+      </c>
+      <c r="D57" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="11"/>
+        <v>stainless_</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="12"/>
+        <v>area</v>
+      </c>
+      <c r="G57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="10"/>
+        <v>area</v>
+      </c>
+      <c r="D58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="11"/>
+        <v>plafones_</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="12"/>
+        <v>area</v>
+      </c>
+      <c r="G58" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="10"/>
+        <v>area</v>
+      </c>
+      <c r="D59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="11"/>
+        <v>escritorios_</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="12"/>
+        <v>area</v>
+      </c>
+      <c r="G59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="10"/>
+        <v>area</v>
+      </c>
+      <c r="D60" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="11"/>
+        <v>sillas_</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="12"/>
+        <v>area</v>
+      </c>
+      <c r="G60" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="10"/>
+        <v>area</v>
+      </c>
+      <c r="D61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="11"/>
+        <v>lavamanos_</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="12"/>
+        <v>area</v>
+      </c>
+      <c r="G61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="10"/>
+        <v>area</v>
+      </c>
+      <c r="D62" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="11"/>
+        <v>fuentes_</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="12"/>
+        <v>area</v>
+      </c>
+      <c r="G62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="10"/>
+        <v>area</v>
+      </c>
+      <c r="D63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="11"/>
+        <v>inodoros_</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="12"/>
+        <v>area</v>
+      </c>
+      <c r="G63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="10"/>
+        <v>area</v>
+      </c>
+      <c r="D64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="11"/>
+        <v>telas_</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="12"/>
+        <v>area</v>
+      </c>
+      <c r="G64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D37151-0FFD-4143-B7E2-4A79ADB4A0F7}">
+  <dimension ref="B2:I40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F15" si="0">B2</f>
+        <v>demo</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H15" si="1">C2</f>
+        <v>Demo</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>adminit@pj</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>Rafa</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>ceatoncoamo@pj</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>Jenny De Jesus</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>centrodelcancer@pj</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>Annette Gaston</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>cocacola@pj</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>Noel Gonzalez</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>coordinadorecono@pj</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>Juan Arias</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>eatonarecibo@pj</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>Loyda Gonzalez</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>eatonlaspiedras@pj</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>Hector Rivera</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>gerenteregional1@pj</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>Luis Colón</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>gerenteregional2@pj</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>Angel Mendez</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>gerenteregional3@pj</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>Adriana Velazco</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>glhponceplaza@pj</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>Saul Zayas</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>glsarmyguayama@pj</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>Emanuel Bermudez</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>grancaribemall@pj</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>Keishla Ayala</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" ref="F16" si="2">B16</f>
+        <v>hhinnponce@pj</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" ref="H16" si="3">C16</f>
+        <v>Alejandro Gomez</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" ref="F17:F40" si="4">B17</f>
+        <v>hmenonitaguayama@pj</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" ref="H17:H40" si="5">C17</f>
+        <v>Angel Aguirre</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="4"/>
+        <v>hospitaldamas@pj</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="5"/>
+        <v>Omar Torres</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="4"/>
+        <v>hospitalsanlucas@pj</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="5"/>
+        <v>Ricardo Ortiz</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="4"/>
+        <v>hospitalsusoni@pj</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="5"/>
+        <v>Deborah Carrero</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="4"/>
+        <v>hotelponcehilton@pj</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="5"/>
+        <v>Joe Otero</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="4"/>
+        <v>hpaviaarecibo@pj</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="5"/>
+        <v>Sarah Segarra</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="4"/>
+        <v>lascatalinasmall@pj</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="5"/>
+        <v>Roberto Colon</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="4"/>
+        <v>medtronicponce@pj</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="5"/>
+        <v>Jose Feliciano</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="4"/>
+        <v>montehiedramall@pj</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="5"/>
+        <v>Ana Leon</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="4"/>
+        <v>pcmall@pj</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="5"/>
+        <v>Luis Diaz</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="4"/>
+        <v>rutacentro@pj</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="5"/>
+        <v>Charles Alonso</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="4"/>
+        <v>rutaeste@pj</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="5"/>
+        <v>Dennis Diaz</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="4"/>
+        <v>rutametro@pj</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="5"/>
+        <v>Victor Ortiz</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="4"/>
+        <v>rutanorte@pj</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="5"/>
+        <v>Miguel Santiago</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="4"/>
+        <v>rutaoeste@pj</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="5"/>
+        <v>Noel Ruiz</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="4"/>
+        <v>rutasur1@pj</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="5"/>
+        <v>Joan Manuel</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="4"/>
+        <v>rutasur2@pj</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="5"/>
+        <v>Luciano Garcia</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="4"/>
+        <v>ssbiotechyauco@pj</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="5"/>
+        <v>Julio Laboy</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="4"/>
+        <v>strykerarroyo@pj</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="5"/>
+        <v>Melvin Lopez</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="4"/>
+        <v>test@pj</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="5"/>
+        <v>test Prime</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="4"/>
+        <v>test1@pj</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="5"/>
+        <v>test 1</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="4"/>
+        <v>test2@pj</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="5"/>
+        <v>test2</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="4"/>
+        <v>torresclaropr@pj</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="5"/>
+        <v>Thomas Colon</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="4"/>
+        <v>wyndhamgr@pj</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="5"/>
+        <v>Waleska Diaz Caraballo</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>